--- a/Datasets/Mound Detection Information.xlsx
+++ b/Datasets/Mound Detection Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bachelor Oppgave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D903E981-57C9-471F-A574-A53A70C8B98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29548752-4C14-443D-AAD6-FBB7B1DFAD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Mound Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="118">
   <si>
     <t>Dataset Source</t>
   </si>
@@ -356,6 +355,36 @@
   </si>
   <si>
     <t xml:space="preserve">Background. </t>
+  </si>
+  <si>
+    <t>Round 1703. 1 mound in database not really distuinguishable, and hence not counted. All mounds difficult to see.</t>
+  </si>
+  <si>
+    <t>Backgorund. Populated area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round 1702. 1 damaged. </t>
+  </si>
+  <si>
+    <t>Round 1702. 1 is damaged. 5 mounds are not distuingishable, and hence not counted.</t>
+  </si>
+  <si>
+    <t>Oestfold DTM 2017 5pkt</t>
+  </si>
+  <si>
+    <t>Relief_Models/Temp/x1_Oestfold</t>
+  </si>
+  <si>
+    <t>Relief_Models/Temp/x2_Oestfold</t>
+  </si>
+  <si>
+    <t>Relief_Models/SLRM_Oestfold</t>
+  </si>
+  <si>
+    <t>NDH Oestfold 5pkt 2015/data/dtm/Slope_Oestfold_2015</t>
+  </si>
+  <si>
+    <t>Backgrund. Roundabout.</t>
   </si>
 </sst>
 </file>
@@ -707,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O156"/>
+  <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="E147" workbookViewId="0">
+      <selection activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8064,6 +8093,805 @@
         <v>107</v>
       </c>
     </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>71</v>
+      </c>
+      <c r="B157" t="s">
+        <v>72</v>
+      </c>
+      <c r="C157" t="s">
+        <v>73</v>
+      </c>
+      <c r="D157" t="s">
+        <v>74</v>
+      </c>
+      <c r="E157" t="s">
+        <v>75</v>
+      </c>
+      <c r="F157">
+        <v>156</v>
+      </c>
+      <c r="G157">
+        <v>310687</v>
+      </c>
+      <c r="H157">
+        <v>310745</v>
+      </c>
+      <c r="I157">
+        <v>6512511</v>
+      </c>
+      <c r="J157">
+        <v>6512470</v>
+      </c>
+      <c r="K157">
+        <v>18</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>18</v>
+      </c>
+      <c r="O157" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>71</v>
+      </c>
+      <c r="B158" t="s">
+        <v>72</v>
+      </c>
+      <c r="C158" t="s">
+        <v>73</v>
+      </c>
+      <c r="D158" t="s">
+        <v>74</v>
+      </c>
+      <c r="E158" t="s">
+        <v>75</v>
+      </c>
+      <c r="F158">
+        <v>157</v>
+      </c>
+      <c r="G158">
+        <v>310752</v>
+      </c>
+      <c r="H158">
+        <v>310801</v>
+      </c>
+      <c r="I158">
+        <v>6512346</v>
+      </c>
+      <c r="J158">
+        <v>6512294</v>
+      </c>
+      <c r="K158">
+        <v>14</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>14</v>
+      </c>
+      <c r="O158" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>71</v>
+      </c>
+      <c r="B159" t="s">
+        <v>72</v>
+      </c>
+      <c r="C159" t="s">
+        <v>73</v>
+      </c>
+      <c r="D159" t="s">
+        <v>74</v>
+      </c>
+      <c r="E159" t="s">
+        <v>75</v>
+      </c>
+      <c r="F159">
+        <v>158</v>
+      </c>
+      <c r="G159">
+        <v>310785</v>
+      </c>
+      <c r="H159">
+        <v>310815</v>
+      </c>
+      <c r="I159">
+        <v>6512382</v>
+      </c>
+      <c r="J159">
+        <v>6512368</v>
+      </c>
+      <c r="K159">
+        <v>3</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>112</v>
+      </c>
+      <c r="B160" t="s">
+        <v>113</v>
+      </c>
+      <c r="C160" t="s">
+        <v>114</v>
+      </c>
+      <c r="D160" t="s">
+        <v>115</v>
+      </c>
+      <c r="E160" t="s">
+        <v>116</v>
+      </c>
+      <c r="F160">
+        <v>159</v>
+      </c>
+      <c r="G160">
+        <v>620237</v>
+      </c>
+      <c r="H160">
+        <v>620300</v>
+      </c>
+      <c r="I160">
+        <v>6573260</v>
+      </c>
+      <c r="J160">
+        <v>6573205</v>
+      </c>
+      <c r="K160">
+        <v>4</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>3</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>112</v>
+      </c>
+      <c r="B161" t="s">
+        <v>113</v>
+      </c>
+      <c r="C161" t="s">
+        <v>114</v>
+      </c>
+      <c r="D161" t="s">
+        <v>115</v>
+      </c>
+      <c r="E161" t="s">
+        <v>116</v>
+      </c>
+      <c r="F161">
+        <v>160</v>
+      </c>
+      <c r="G161">
+        <v>620220</v>
+      </c>
+      <c r="H161">
+        <v>620270</v>
+      </c>
+      <c r="I161">
+        <v>6572988</v>
+      </c>
+      <c r="J161">
+        <v>6572938</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>112</v>
+      </c>
+      <c r="B162" t="s">
+        <v>113</v>
+      </c>
+      <c r="C162" t="s">
+        <v>114</v>
+      </c>
+      <c r="D162" t="s">
+        <v>115</v>
+      </c>
+      <c r="E162" t="s">
+        <v>116</v>
+      </c>
+      <c r="F162">
+        <v>161</v>
+      </c>
+      <c r="G162">
+        <v>620030</v>
+      </c>
+      <c r="H162">
+        <v>620080</v>
+      </c>
+      <c r="I162">
+        <v>6572835</v>
+      </c>
+      <c r="J162">
+        <v>6572785</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>112</v>
+      </c>
+      <c r="B163" t="s">
+        <v>113</v>
+      </c>
+      <c r="C163" t="s">
+        <v>114</v>
+      </c>
+      <c r="D163" t="s">
+        <v>115</v>
+      </c>
+      <c r="E163" t="s">
+        <v>116</v>
+      </c>
+      <c r="F163">
+        <v>162</v>
+      </c>
+      <c r="G163">
+        <v>619929</v>
+      </c>
+      <c r="H163">
+        <v>619979</v>
+      </c>
+      <c r="I163">
+        <v>6572687</v>
+      </c>
+      <c r="J163">
+        <v>6572637</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>112</v>
+      </c>
+      <c r="B164" t="s">
+        <v>113</v>
+      </c>
+      <c r="C164" t="s">
+        <v>114</v>
+      </c>
+      <c r="D164" t="s">
+        <v>115</v>
+      </c>
+      <c r="E164" t="s">
+        <v>116</v>
+      </c>
+      <c r="F164">
+        <v>163</v>
+      </c>
+      <c r="G164">
+        <v>622041</v>
+      </c>
+      <c r="H164">
+        <v>622091</v>
+      </c>
+      <c r="I164">
+        <v>6572440</v>
+      </c>
+      <c r="J164">
+        <v>6572390</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>112</v>
+      </c>
+      <c r="B165" t="s">
+        <v>113</v>
+      </c>
+      <c r="C165" t="s">
+        <v>114</v>
+      </c>
+      <c r="D165" t="s">
+        <v>115</v>
+      </c>
+      <c r="E165" t="s">
+        <v>116</v>
+      </c>
+      <c r="F165">
+        <v>164</v>
+      </c>
+      <c r="G165">
+        <v>622256</v>
+      </c>
+      <c r="H165">
+        <v>622306</v>
+      </c>
+      <c r="I165">
+        <v>6572267</v>
+      </c>
+      <c r="J165">
+        <v>6572217</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>112</v>
+      </c>
+      <c r="B166" t="s">
+        <v>113</v>
+      </c>
+      <c r="C166" t="s">
+        <v>114</v>
+      </c>
+      <c r="D166" t="s">
+        <v>115</v>
+      </c>
+      <c r="E166" t="s">
+        <v>116</v>
+      </c>
+      <c r="F166">
+        <v>165</v>
+      </c>
+      <c r="G166">
+        <v>621585</v>
+      </c>
+      <c r="H166">
+        <v>621625</v>
+      </c>
+      <c r="I166">
+        <v>6572119</v>
+      </c>
+      <c r="J166">
+        <v>6572079</v>
+      </c>
+      <c r="K166">
+        <v>4</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>2</v>
+      </c>
+      <c r="N166">
+        <v>2</v>
+      </c>
+      <c r="O166" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>112</v>
+      </c>
+      <c r="B167" t="s">
+        <v>113</v>
+      </c>
+      <c r="C167" t="s">
+        <v>114</v>
+      </c>
+      <c r="D167" t="s">
+        <v>115</v>
+      </c>
+      <c r="E167" t="s">
+        <v>116</v>
+      </c>
+      <c r="F167">
+        <v>166</v>
+      </c>
+      <c r="G167">
+        <v>618032</v>
+      </c>
+      <c r="H167">
+        <v>618082</v>
+      </c>
+      <c r="I167">
+        <v>6574664</v>
+      </c>
+      <c r="J167">
+        <v>6574614</v>
+      </c>
+      <c r="K167">
+        <v>4</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>4</v>
+      </c>
+      <c r="O167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>112</v>
+      </c>
+      <c r="B168" t="s">
+        <v>113</v>
+      </c>
+      <c r="C168" t="s">
+        <v>114</v>
+      </c>
+      <c r="D168" t="s">
+        <v>115</v>
+      </c>
+      <c r="E168" t="s">
+        <v>116</v>
+      </c>
+      <c r="F168">
+        <v>167</v>
+      </c>
+      <c r="G168">
+        <v>618008</v>
+      </c>
+      <c r="H168">
+        <v>618048</v>
+      </c>
+      <c r="I168">
+        <v>6574668</v>
+      </c>
+      <c r="J168">
+        <v>6574628</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>112</v>
+      </c>
+      <c r="B169" t="s">
+        <v>113</v>
+      </c>
+      <c r="C169" t="s">
+        <v>114</v>
+      </c>
+      <c r="D169" t="s">
+        <v>115</v>
+      </c>
+      <c r="E169" t="s">
+        <v>116</v>
+      </c>
+      <c r="F169">
+        <v>168</v>
+      </c>
+      <c r="G169">
+        <v>618013</v>
+      </c>
+      <c r="H169">
+        <v>618063</v>
+      </c>
+      <c r="I169">
+        <v>6574733</v>
+      </c>
+      <c r="J169">
+        <v>6574683</v>
+      </c>
+      <c r="K169">
+        <v>3</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>2</v>
+      </c>
+      <c r="O169" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>112</v>
+      </c>
+      <c r="B170" t="s">
+        <v>113</v>
+      </c>
+      <c r="C170" t="s">
+        <v>114</v>
+      </c>
+      <c r="D170" t="s">
+        <v>115</v>
+      </c>
+      <c r="E170" t="s">
+        <v>116</v>
+      </c>
+      <c r="F170">
+        <v>169</v>
+      </c>
+      <c r="G170">
+        <v>617981</v>
+      </c>
+      <c r="H170">
+        <v>618053</v>
+      </c>
+      <c r="I170">
+        <v>6574797</v>
+      </c>
+      <c r="J170">
+        <v>6574730</v>
+      </c>
+      <c r="K170">
+        <v>18</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>3</v>
+      </c>
+      <c r="N170">
+        <v>15</v>
+      </c>
+      <c r="O170" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>112</v>
+      </c>
+      <c r="B171" t="s">
+        <v>113</v>
+      </c>
+      <c r="C171" t="s">
+        <v>114</v>
+      </c>
+      <c r="D171" t="s">
+        <v>115</v>
+      </c>
+      <c r="E171" t="s">
+        <v>116</v>
+      </c>
+      <c r="F171">
+        <v>170</v>
+      </c>
+      <c r="G171">
+        <v>618149</v>
+      </c>
+      <c r="H171">
+        <v>618217</v>
+      </c>
+      <c r="I171">
+        <v>6574690</v>
+      </c>
+      <c r="J171">
+        <v>6574626</v>
+      </c>
+      <c r="K171">
+        <v>4</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>4</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>112</v>
+      </c>
+      <c r="B172" t="s">
+        <v>113</v>
+      </c>
+      <c r="C172" t="s">
+        <v>114</v>
+      </c>
+      <c r="D172" t="s">
+        <v>115</v>
+      </c>
+      <c r="E172" t="s">
+        <v>116</v>
+      </c>
+      <c r="F172">
+        <v>171</v>
+      </c>
+      <c r="G172">
+        <v>617668</v>
+      </c>
+      <c r="H172">
+        <v>617728</v>
+      </c>
+      <c r="I172">
+        <v>6574857</v>
+      </c>
+      <c r="J172">
+        <v>6574797</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>112</v>
+      </c>
+      <c r="B173" t="s">
+        <v>113</v>
+      </c>
+      <c r="C173" t="s">
+        <v>114</v>
+      </c>
+      <c r="D173" t="s">
+        <v>115</v>
+      </c>
+      <c r="E173" t="s">
+        <v>116</v>
+      </c>
+      <c r="F173">
+        <v>172</v>
+      </c>
+      <c r="G173">
+        <v>617792</v>
+      </c>
+      <c r="H173">
+        <v>617852</v>
+      </c>
+      <c r="I173">
+        <v>6574935</v>
+      </c>
+      <c r="J173">
+        <v>6574875</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
